--- a/results.xlsx
+++ b/results.xlsx
@@ -9,10 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Guerneville_daily" sheetId="1" r:id="rId1"/>
+    <sheet name="Guerneville_hourly" sheetId="2" r:id="rId2"/>
+    <sheet name="Hopland_daily" sheetId="3" r:id="rId3"/>
+    <sheet name="Hopland_hourly" sheetId="4" r:id="rId4"/>
+    <sheet name="Calpella_daily" sheetId="8" r:id="rId5"/>
+    <sheet name="Calpella_hourly" sheetId="7" r:id="rId6"/>
+    <sheet name="Warm_Springs_Daily" sheetId="5" r:id="rId7"/>
+    <sheet name="Warm_Springs_Hourly" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Basin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="16">
   <si>
     <t>HMS</t>
   </si>
@@ -35,29 +39,53 @@
     <t>LSTM</t>
   </si>
   <si>
-    <t>PILSTM</t>
+    <t>Physics_Informed_LSTM</t>
   </si>
   <si>
-    <t>Calpella</t>
+    <t>NSE</t>
   </si>
   <si>
-    <t>Hopland</t>
+    <t>MSE</t>
   </si>
   <si>
-    <t>Guernerville</t>
+    <t>RMSE</t>
   </si>
   <si>
-    <t>Warm Springs</t>
+    <t>KGE</t>
   </si>
   <si>
-    <t>Guernerville-1Yr</t>
+    <t>Alpha-NSE</t>
+  </si>
+  <si>
+    <t>Beta-KGE</t>
+  </si>
+  <si>
+    <t>Beta-NSE</t>
+  </si>
+  <si>
+    <t>Pearson-r</t>
+  </si>
+  <si>
+    <t>FHV</t>
+  </si>
+  <si>
+    <t>FMS</t>
+  </si>
+  <si>
+    <t>FLV</t>
+  </si>
+  <si>
+    <t>Peak-Timing</t>
+  </si>
+  <si>
+    <t>Peak-MAPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +109,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,10 +145,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,99 +434,1626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.85</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.84992650400000003</v>
+      </c>
+      <c r="C2">
+        <v>0.789625032</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.83213328200000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.8</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4619520.1979999999</v>
       </c>
       <c r="C3">
-        <v>0.78</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.83</v>
+        <v>6475703.165</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5167226.1409999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.85</v>
+        <v>2149.3069110000001</v>
       </c>
       <c r="C4">
-        <v>0.78</v>
+        <v>2544.7402940000002</v>
       </c>
       <c r="D4" s="2">
-        <v>0.81</v>
+        <v>2273.1533469999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.73</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.83</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.84297644400000005</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.80642046300000003</v>
+      </c>
+      <c r="D5">
+        <v>0.80278121000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0267590719999999</v>
+      </c>
+      <c r="C6">
+        <v>0.89733713999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.90502914899999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="1">
+        <v>1.1371580960000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.1214829609999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.1497950969999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.8008514000000002E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.2521852999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.2431758000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.92838990399999999</v>
+      </c>
+      <c r="C9">
+        <v>0.88965841899999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.91376069699999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.5752171960000001</v>
+      </c>
+      <c r="C10">
+        <v>-13.01777133</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-10.142787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-24.282966770000002</v>
+      </c>
+      <c r="C11" s="3">
+        <v>970.66931439999996</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45.749556380000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>97.585131739999994</v>
+      </c>
+      <c r="C12">
+        <v>99.999999990000006</v>
+      </c>
+      <c r="D12" s="1">
+        <v>77.237993900000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>14.651640220000001</v>
+      </c>
+      <c r="C14">
+        <v>37.029301009999998</v>
+      </c>
+      <c r="D14">
+        <v>22.765721360000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.83975673799999995</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.84773067199999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.88923329100000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5100839.8080000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4847014.6979999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3525909.4840000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2258.5038869999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2201.593672</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1877.740526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.84207852000000005</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.820565133</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.82062712999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.031695542</v>
+      </c>
+      <c r="C6">
+        <v>0.84721683599999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0171508250000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.1346808399999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0556573140000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.17062581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.6414505000000002E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.9180952000000001E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.8802073000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.92387078199999995</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.92412879599999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.94739478600000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.6029495169999999</v>
+      </c>
+      <c r="C10">
+        <v>-16.407723659999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.8202907880000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>-24.855519659999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-2.1726318060000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-11.155184009999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>97.565741340000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-3.1024001480000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.6748156500000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>26.251776700000001</v>
+      </c>
+      <c r="C14">
+        <v>37.047286659999997</v>
+      </c>
+      <c r="D14">
+        <v>21.92081696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.79554781299999999</v>
+      </c>
+      <c r="C2">
+        <v>0.78851311499999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.84377153999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>404643.88390000002</v>
+      </c>
+      <c r="C3">
+        <v>418566.6876</v>
+      </c>
+      <c r="D3" s="1">
+        <v>309201.34259999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>636.11625030000005</v>
+      </c>
+      <c r="C4">
+        <v>646.96730019999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>556.05875820000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.72818730799999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.85995905900000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.87433720599999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.186226942</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.93562655400000005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.94092479699999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1.185631796</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0571091349999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.076198483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7.9941956999999994E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.4593932999999998E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.2814721999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.93113417399999998</v>
+      </c>
+      <c r="C9">
+        <v>0.88951891000000005</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.91940813200000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>23.945896019999999</v>
+      </c>
+      <c r="C10">
+        <v>-4.8206197629999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1.5992075569999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30.81433402</v>
+      </c>
+      <c r="C11">
+        <v>76.165103389999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>55.870365270000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>96.352300889999995</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.930595131</v>
+      </c>
+      <c r="D12" s="2">
+        <v>85.976668399999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>36.378148029999998</v>
+      </c>
+      <c r="C14">
+        <v>40.152929030000003</v>
+      </c>
+      <c r="D14">
+        <v>24.89600308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.75182992400000004</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.77621089899999995</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.88916793400000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>549210.37840000005</v>
+      </c>
+      <c r="C3" s="2">
+        <v>495254.29680000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>245275.82829999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>741.0872948</v>
+      </c>
+      <c r="C4" s="2">
+        <v>703.74306160000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>495.2532971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.71182068300000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.81543473899999996</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.80857115700000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.204127553</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.89843003300000002</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.86108821499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1.1855502950000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0992450359999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.121128704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7.5688790000000006E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0483561000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.9410242E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.91663124699999998</v>
+      </c>
+      <c r="C9">
+        <v>0.88210894799999995</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.94826650199999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>22.67961352</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-7.9373817200000003</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-15.49946113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>26.515350470000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>21.152810070000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-2.6205555409999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5">
+        <v>96.357821479999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.752275064</v>
+      </c>
+      <c r="D12" s="2">
+        <v>95.359521139999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>40.299279390000002</v>
+      </c>
+      <c r="C14">
+        <v>27.930491050000001</v>
+      </c>
+      <c r="D14">
+        <v>35.914229839999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.699238209</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.73545539299999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.83128770399999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>76535.402180000005</v>
+      </c>
+      <c r="C3" s="2">
+        <v>67319.149430000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42932.526140000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>276.6503247</v>
+      </c>
+      <c r="C4" s="2">
+        <v>259.45934060000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>207.2016557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.74644986099999999</v>
+      </c>
+      <c r="C5">
+        <v>0.60156360799999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.85939294799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.2246625710000001</v>
+      </c>
+      <c r="C6">
+        <v>0.639552444</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.89147115200000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.058923238</v>
+      </c>
+      <c r="C7">
+        <v>0.86291217899999995</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0159060799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.4603519999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>-8.0506797000000005E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.3410750000000008E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.89830214399999997</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.89981992600000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.91202938600000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25.593700080000001</v>
+      </c>
+      <c r="C10">
+        <v>-33.677168119999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-5.7610833159999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-6.060139E-3</v>
+      </c>
+      <c r="C11">
+        <v>-29.196373359999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-10.75199696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-969.76993340000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>69.346631259999995</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45.071142780000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>54.234117769999997</v>
+      </c>
+      <c r="C14">
+        <v>45.231653219999998</v>
+      </c>
+      <c r="D14">
+        <v>24.84690376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.67838644299999995</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.72168279300000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.74705784399999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>115292.9224</v>
+      </c>
+      <c r="C3" s="2">
+        <v>99771.926590000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>90675.407600000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>339.548115</v>
+      </c>
+      <c r="C4" s="2">
+        <v>315.86694440000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>301.12357530000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.76179778300000001</v>
+      </c>
+      <c r="C5">
+        <v>0.62157375100000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.72836487999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="1">
-        <v>0.86</v>
+        <v>1.1982627729999999</v>
       </c>
       <c r="C6">
-        <v>0.78</v>
+        <v>0.70161329299999997</v>
       </c>
       <c r="D6" s="2">
-        <v>0.81</v>
+        <v>0.76394799300000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0603664479999999</v>
+      </c>
+      <c r="C7">
+        <v>0.80577891000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.961733756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.9987177E-2</v>
+      </c>
+      <c r="C8">
+        <v>-9.6479787999999997E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1.9008846999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.882577426</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.87174257300000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.871155974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22.973900560000001</v>
+      </c>
+      <c r="C10">
+        <v>-24.906736850000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-19.830895980000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.43647985299999997</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-21.955050079999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-22.629929969999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.6515411959999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.6644879239999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-1.67687736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>37.443726290000001</v>
+      </c>
+      <c r="C14">
+        <v>52.03318384</v>
+      </c>
+      <c r="D14">
+        <v>42.093483910000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.73236276499999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.83772057600000005</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.848036601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>143315.75289999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>86898.214300000007</v>
+      </c>
+      <c r="D3" s="1">
+        <v>81374.136790000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>378.57067089999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>294.78503069999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>285.26152350000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.79117501099999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.88429228800000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.91664178799999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.1794982570000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.94628582699999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.031460321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.0380704460000001</v>
+      </c>
+      <c r="C7">
+        <v>0.94117172599999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.024698992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5486174E-2</v>
+      </c>
+      <c r="C8">
+        <v>-2.3929977000000002E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0046977E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.90030600400000005</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.91608160900000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.92686451299999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>24.454836539999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-2.0121869509999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.0374908969999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26.90055766</v>
+      </c>
+      <c r="C11">
+        <v>36.808213700000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.3722775079999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>79.236964580000006</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-2113.0559659999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-61.552660349999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="C13">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="D13">
+        <v>0.33333333300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>44.99523319</v>
+      </c>
+      <c r="C14">
+        <v>53.016223570000001</v>
+      </c>
+      <c r="D14">
+        <v>49.502874169999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.61371065199999997</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.71142418799999996</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.69997576500000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>259714.6826</v>
+      </c>
+      <c r="C3" s="7">
+        <v>194018.74739999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>201715.88800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>509.62209780000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>440.47559230000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>449.1279194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.76049433700000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.80207151700000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.76846837300000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.1837324060000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.87814748899999995</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.1996868119999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.0381607420000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.006137987</v>
+      </c>
+      <c r="D7">
+        <v>0.95527710300000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.3851731000000001E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.22799E-3</v>
+      </c>
+      <c r="D8">
+        <v>-1.6233687E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.85117418499999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.84414758499999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.89168594800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>25.384240630000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-6.7382029599999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24.074463120000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30.904678019999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-6.533696623</v>
+      </c>
+      <c r="D11" s="4">
+        <v>97.40156657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>79.780766970000002</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.90948858099999996</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-2064.1366990000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>55.16080195</v>
+      </c>
+      <c r="C14">
+        <v>48.883676489999999</v>
+      </c>
+      <c r="D14">
+        <v>45.77015952</v>
       </c>
     </row>
   </sheetData>
